--- a/UnitTest/testcase.xlsx
+++ b/UnitTest/testcase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>Date and Time of Test Run</t>
   </si>
@@ -115,6 +115,111 @@
   <si>
     <t>https://github.com/crownyoung0303/EC601HW2-MyFriendlypix</t>
   </si>
+  <si>
+    <t>Welcome page</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Button is valid</t>
+  </si>
+  <si>
+    <t>Welcome page is valid</t>
+  </si>
+  <si>
+    <t>Display welcome messages on it including two buttons</t>
+  </si>
+  <si>
+    <t>"SIGN IN" button</t>
+  </si>
+  <si>
+    <t>Click "SIGN IN" button to jump into the sign-in page</t>
+  </si>
+  <si>
+    <t>Successfully jumping into sign-in page</t>
+  </si>
+  <si>
+    <t>"EXPLORE" button</t>
+  </si>
+  <si>
+    <t>Click "GOOGLE SIGN-IN" button to start to sign in with google account</t>
+  </si>
+  <si>
+    <t>Successfully jumping into exploring page</t>
+  </si>
+  <si>
+    <t>Click "EXPLORE" button to jump into the exploring page</t>
+  </si>
+  <si>
+    <t>Successfully opening google sign-in page</t>
+  </si>
+  <si>
+    <t>Successfully displaying welcome messages</t>
+  </si>
+  <si>
+    <t>Click "settings" button to open setting page</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>"GOOGLE SIGN-IN" button in sign-in page</t>
+  </si>
+  <si>
+    <t>"Settings" button in sign-in page and exploring page</t>
+  </si>
+  <si>
+    <t>"Account" button (icon) in exploring page</t>
+  </si>
+  <si>
+    <t>"FEED" button in exploring page</t>
+  </si>
+  <si>
+    <t>"HOME" button in exploring page</t>
+  </si>
+  <si>
+    <t>"Post" button (Icon) in exploring page</t>
+  </si>
+  <si>
+    <t>Click "Account" button to get the information of the sign-in account</t>
+  </si>
+  <si>
+    <t>Click "Post" button to upload images</t>
+  </si>
+  <si>
+    <t>Click "HOME" button to display home images</t>
+  </si>
+  <si>
+    <t>Click "FEED" button to display feed images</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>No account information page</t>
+  </si>
+  <si>
+    <t>No setting page</t>
+  </si>
+  <si>
+    <t>Successfully upload files</t>
+  </si>
+  <si>
+    <t>Successfully change to home page</t>
+  </si>
+  <si>
+    <t>Successfully change to feed page</t>
+  </si>
 </sst>
 </file>
 
@@ -204,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -221,19 +326,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -559,18 +661,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="10">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8">
         <v>43077.916666666664</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -591,18 +693,18 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -623,18 +725,18 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -655,18 +757,18 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -773,14 +875,30 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -801,14 +919,30 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -829,14 +963,30 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -856,15 +1006,31 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+    <row r="10" spans="1:26" ht="24.6">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -884,15 +1050,31 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+    <row r="11" spans="1:26" ht="23.1" customHeight="1">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -912,15 +1094,31 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+    <row r="12" spans="1:26" ht="23.1" customHeight="1">
+      <c r="A12" s="4">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -940,15 +1138,31 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="31.5" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+    <row r="13" spans="1:26" ht="23.1" customHeight="1">
+      <c r="A13" s="4">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -968,15 +1182,31 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+    <row r="14" spans="1:26" ht="15" customHeight="1">
+      <c r="A14" s="4">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -996,15 +1226,31 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+    <row r="15" spans="1:26" ht="15.3" customHeight="1">
+      <c r="A15" s="4">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
